--- a/medicine/Enfance/Gérard_Bialestowski/Gérard_Bialestowski.xlsx
+++ b/medicine/Enfance/Gérard_Bialestowski/Gérard_Bialestowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bialestowski</t>
+          <t>Gérard_Bialestowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Bialestowski (Paris, 13 avril 1946 - 19 juin 2007[1]) est un poète et écrivain français, auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Bialestowski (Paris, 13 avril 1946 - 19 juin 2007) est un poète et écrivain français, auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bialestowski</t>
+          <t>Gérard_Bialestowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Paris, il passe son enfance à Ménilmontant puis vit en banlieue. Il se passionne pour des poètes comme Eugène Pottier[2].
-À sa mort, son confrère Yves Pinguilly lui rend hommage sur son site[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Paris, il passe son enfance à Ménilmontant puis vit en banlieue. Il se passionne pour des poètes comme Eugène Pottier.
+À sa mort, son confrère Yves Pinguilly lui rend hommage sur son site.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bialestowski</t>
+          <t>Gérard_Bialestowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>P'tit Jo vole, Casterman, 1981.
 Des outils sur le chemin en Mâconnais, Pirot, 1984.
@@ -555,12 +571,12 @@
 La Fortune de Jonas, Epigones, 1993
 Pour une poignée de cailloux, Bordas, collection Aux quatre coins du temps, 1993.
 La Taupe et la Taupe, Albin Michel, 1996.
-J'aime pas la nature, illustré par Michel Riu[4], Rageot, 1997.
+J'aime pas la nature, illustré par Michel Riu, Rageot, 1997.
 Les Poètes et le Clown, Motus, 1997.
 Jungle Blues, Albin Michel, collection Zéphyr, 1998.
 L'Avocat borgne, Le Fourneau, 1999.
 Des nouvelles des arbres, vingt-six cahiers (dont L'Orme, enrichi d'une gravure sur bois de José San Martin), Christian Laucou, 1999-2004.
-La pieuvre bricole et autres poèmes, Milan poche cadet, 2000[5].
+La pieuvre bricole et autres poèmes, Milan poche cadet, 2000.
 Au bout de mon râteau, Albin Michel, 2002.
 Ma langue au tigre, avec Clément Oubrerie, Albin Michel, 2002.
 Trois poètes vous invitent au cirque, avec Jacques Bussy et Jean-Hugues Malineau, L'école des loisirs, 2002.
